--- a/biology/Médecine/Fibrochondrogenèse/Fibrochondrogenèse.xlsx
+++ b/biology/Médecine/Fibrochondrogenèse/Fibrochondrogenèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fibrochondrogenèse est un nanisme létal très rare. Il se distingue des autres formes de nanismes létaux par :
 De larges métaphyses des os longs
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aucun nom connu</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène non connu</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nouveau-né présente un faciès caractéristique avec des yeux protubérants, un petit nez plat avec des narines antéversées et une petite bouche avec un philtrum long.
 Les segments des membres sont tous atteints mais les bras ont souvent une taille normale. Le thorax est étroit et les côtes sont minces. Le nouveau-né présente souvent un hydrops fœtal.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique récessive
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic anténatal de fibrochondrogenèse est possible par échographie.
 En l'absence de la mutation responsable aucun diagnostic n'est possible par amniocentèse ou biopsie de trophoblaste
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fibrochondrogen%C3%A8se</t>
+          <t>Fibrochondrogenèse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,10 +691,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:228520 [1]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:228520 
  Portail de la médecine                     </t>
         </is>
       </c>
